--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
@@ -40,88 +40,82 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
@@ -130,43 +124,49 @@
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
         <v>31</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,31 +711,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7467532467532467</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,295 +811,175 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>164</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.9152542372881356</v>
+      </c>
+      <c r="L7">
+        <v>54</v>
+      </c>
+      <c r="M7">
+        <v>54</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L9">
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8203125</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
+      </c>
+      <c r="M10">
+        <v>105</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>23</v>
       </c>
-      <c r="K7">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>96</v>
+      </c>
+      <c r="M12">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>24</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3047210300429185</v>
-      </c>
-      <c r="C10">
-        <v>71</v>
-      </c>
-      <c r="D10">
-        <v>71</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>162</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>65</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2125</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>63</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L12">
-        <v>43</v>
-      </c>
-      <c r="M12">
-        <v>43</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8275862068965517</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,21 +991,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.8235294117647058</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,15 +1121,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.76</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
         <v>19</v>
@@ -1267,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.717948717948718</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1298,16 +1178,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.696969696969697</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1319,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.684931506849315</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5833333333333334</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5789473684210527</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5727699530516432</v>
+        <v>0.5065274151436031</v>
       </c>
       <c r="L28">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="M28">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1501,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>91</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5138888888888888</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="L30">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="M30">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>70</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4642857142857143</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.4496124031007752</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1605,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,33 +1511,163 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>0.3692307692307693</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>24</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.3096234309623431</v>
+      </c>
+      <c r="L37">
+        <v>74</v>
+      </c>
+      <c r="M37">
+        <v>74</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38">
+        <v>0.2714285714285714</v>
+      </c>
+      <c r="L38">
+        <v>19</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K34">
-        <v>0.358695652173913</v>
-      </c>
-      <c r="L34">
-        <v>33</v>
-      </c>
-      <c r="M34">
-        <v>33</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>59</v>
+      <c r="K39">
+        <v>0.02125279642058166</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -58,99 +61,93 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -160,13 +157,10 @@
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
 </sst>
 </file>
@@ -524,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -593,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.589041095890411</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -693,38 +687,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5833333333333334</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
+        <v>178</v>
+      </c>
+      <c r="D5">
+        <v>178</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>114</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="L5">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L5">
-        <v>43</v>
-      </c>
-      <c r="M5">
-        <v>43</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -735,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1724806201550388</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>427</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -793,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1322751322751323</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>164</v>
+        <v>421</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.9152542372881356</v>
@@ -839,17 +833,41 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1693121693121693</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>157</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8203125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7857142857142857</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -991,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7254901960784313</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.71875</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,47 +1113,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L18">
+        <v>77</v>
+      </c>
+      <c r="M18">
+        <v>77</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>29</v>
-      </c>
-      <c r="K18">
-        <v>0.7112676056338029</v>
-      </c>
-      <c r="L18">
-        <v>101</v>
-      </c>
-      <c r="M18">
-        <v>101</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6886792452830188</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1199,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6190476190476191</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M24">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5833333333333334</v>
+        <v>0.58</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5588235294117647</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5531914893617021</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5065274151436031</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L28">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="M28">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.449438202247191</v>
+      </c>
+      <c r="L29">
         <v>40</v>
       </c>
-      <c r="K29">
-        <v>0.475</v>
-      </c>
-      <c r="L29">
-        <v>19</v>
-      </c>
       <c r="M29">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4352941176470588</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L30">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1433,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>192</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4305084745762712</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L31">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M31">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1459,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4269662921348314</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1485,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4222222222222222</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1511,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3972602739726027</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1537,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3692307692307693</v>
+        <v>0.328125</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1563,21 +1581,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3205128205128205</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1589,85 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
-      <c r="J37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37">
-        <v>0.3096234309623431</v>
-      </c>
-      <c r="L37">
-        <v>74</v>
-      </c>
-      <c r="M37">
-        <v>74</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K38">
-        <v>0.2714285714285714</v>
-      </c>
-      <c r="L38">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
-      <c r="J39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K39">
-        <v>0.02125279642058166</v>
-      </c>
-      <c r="L39">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>19</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>875</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
